--- a/Horario_Academico_Inicial.xlsx
+++ b/Horario_Academico_Inicial.xlsx
@@ -527,45 +527,57 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>PDM_L1
-João
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>ISI_L1
-Pedro
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>11h-13h</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
           <t>SETR_L2
 António
 [Lab01]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>IA_L2
 Pedro
 [SalaT]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>PA_L1
+Manuel
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>ISI_L2
+Pedro
+[SalaT]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11h-13h</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>PDM_L1
+João
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>ISI_L1
+Pedro
+[SalaC]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -573,55 +585,43 @@
           <t>14h-16h</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>IA_L1
-Pedro
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>PA_L1
-Manuel
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>SETR_L1
 António
 [Lab01]</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>ISI_L2
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>PDM_L2
+João
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>IA_L1
 Pedro
 [SalaT]</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>PA_L2
 Manuel
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>PDM_L2
-João
 [SalaC]</t>
         </is>
       </c>
@@ -672,26 +672,20 @@
           <t>9h-11h</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>R_L2
-Pedro
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>RCSD_L1
 Manuel
-[SalaT]</t>
-        </is>
-      </c>
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>PS_L1
+          <t>IM_L1
 João
-[SalaC]</t>
+[Lab01]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -703,68 +697,68 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>RCSD_L2
-Manuel
-[SalaC]</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>14h-16h</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>IE_L1
-António
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>IM_L2
 João
 [Lab01]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14h-16h</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>PS_L2
 João
 [Online]</t>
         </is>
       </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>IE_L1
+António
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>RCSD_L2
+Manuel
+[SalaT]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>PS_L1
+João
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>IE_L2
 António
 [SalaT]</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>IM_L1
-João
-[Lab01]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>R_L1
@@ -772,7 +766,13 @@
 [SalaT]</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>R_L2
+Pedro
+[SalaT]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -822,104 +822,104 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>AST_L2
-Manuel
-[SalaC]</t>
+          <t>IA_L2
+Pedro
+[SalaT]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11h-13h</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>RCE_L1
+António
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>GSI_L1
+João
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>RCE_L2
 António
 [SalaT]</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>11h-13h</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>ISC_L1
+Manuel
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14h-16h</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>IA_L1
+Pedro
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>AST_L1
+Manuel
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>GSI_L2
 João
 [Online]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>AST_L1
-Manuel
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>IA_L2
-Pedro
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>ISC_L2
 Manuel
-[SalaT]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>14h-16h</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>GSI_L1
-João
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>IA_L1
-Pedro
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>ISC_L1
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>AST_L2
 Manuel
 [SalaC]</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>RCE_L1
-António
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -966,21 +966,27 @@
           <t>9h-11h</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>PAG_L2
+Ana
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>TCGEV_L1
 Isabel
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+[SalaC]</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr">
         <is>
           <t>PAG_L1
 Ana
-[SalaT]</t>
+[SalaC]</t>
         </is>
       </c>
     </row>
@@ -993,80 +999,74 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="6" t="inlineStr">
         <is>
+          <t>PVR_L1
+Isabel
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>IAAJ_L1
+Ana
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>GUS_L2
+Manuel
+[SalaT]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14h-16h</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>PVR_L2
+Isabel
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>TCGEV_L2
+Isabel
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
           <t>IAAJ_L2
 Ana
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
-        <is>
-          <t>PVR_L2
-Isabel
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>GUS_L2
-Manuel
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>14h-16h</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>PAG_L2
-Ana
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>TCGEV_L2
-Isabel
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" s="6" t="inlineStr">
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>GUS_L1
 Manuel
 [SalaC]</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>PVR_L1
-Isabel
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>IAAJ_L1
-Ana
-[SalaC]</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Horario_Academico_Inicial.xlsx
+++ b/Horario_Academico_Inicial.xlsx
@@ -527,104 +527,104 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
+          <t>SETR_L1
+António
+[Lab01]</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>PA_L2
+Manuel
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>ISI_L2
+Pedro
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>ISI_L1
+Pedro
+[SalaC]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11h-13h</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>PDM_L2
+João
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14h-16h</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
           <t>SETR_L2
 António
 [Lab01]</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>IA_L2
 Pedro
 [SalaT]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>PDM_L1
+João
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>PA_L1
 Manuel
 [SalaC]</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>ISI_L2
-Pedro
-[SalaT]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>11h-13h</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>PDM_L1
-João
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>ISI_L1
-Pedro
-[SalaC]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>14h-16h</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>SETR_L1
-António
-[Lab01]</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>PDM_L2
-João
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>IA_L1
 Pedro
 [SalaT]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>PA_L2
-Manuel
-[SalaC]</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -673,106 +673,106 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>IE_L2
+António
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>RCSD_L1
 Manuel
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr">
+[SalaT]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11h-13h</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>PS_L2
+João
+[Online]</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>IE_L1
+António
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>R_L2
+Pedro
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14h-16h</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>PS_L1
+João
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>IM_L2
+João
+[Lab01]</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>R_L1
+Pedro
+[SalaT]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>IM_L1
 João
 [Lab01]</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11h-13h</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>IM_L2
-João
-[Lab01]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>14h-16h</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>PS_L2
-João
-[Online]</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>IE_L1
-António
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>RCSD_L2
 Manuel
-[SalaT]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>PS_L1
-João
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>IE_L2
-António
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>R_L1
-Pedro
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>R_L2
-Pedro
-[SalaT]</t>
-        </is>
-      </c>
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -819,15 +819,21 @@
           <t>9h-11h</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>IA_L2
-Pedro
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>GSI_L1
+João
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>AST_L2
+Manuel
+[SalaC]</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -839,30 +845,18 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>RCE_L1
-António
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>GSI_L1
-João
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
           <t>RCE_L2
 António
-[SalaT]</t>
-        </is>
-      </c>
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>ISC_L1
+          <t>AST_L1
 Manuel
-[SalaC]</t>
+[SalaT]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -873,51 +867,57 @@
           <t>14h-16h</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>IA_L1
-Pedro
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>AST_L1
-Manuel
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>GSI_L2
 João
 [Online]</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>ISC_L2
 Manuel
 [SalaC]</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>IA_L2
+Pedro
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>ISC_L1
+Manuel
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>IA_L1
+Pedro
+[SalaT]</t>
+        </is>
+      </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>AST_L2
-Manuel
-[SalaC]</t>
+          <t>RCE_L1
+António
+[SalaT]</t>
         </is>
       </c>
     </row>
@@ -966,105 +966,105 @@
           <t>9h-11h</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>IAAJ_L1
+Ana
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>GUS_L2
+Manuel
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>11h-13h</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>PAG_L1
+Ana
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>GUS_L1
+Manuel
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>IAAJ_L2
+Ana
+[SalaC]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14h-16h</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>TCGEV_L2
+Isabel
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>PVR_L1
+Isabel
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16h-18h</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>PAG_L2
 Ana
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr">
+[SalaC]</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>PVR_L2
+Isabel
+[SalaT]</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>TCGEV_L1
 Isabel
 [SalaC]</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>PAG_L1
-Ana
-[SalaC]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>11h-13h</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>PVR_L1
-Isabel
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
-        <is>
-          <t>IAAJ_L1
-Ana
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>GUS_L2
-Manuel
-[SalaT]</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>14h-16h</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
-        <is>
-          <t>PVR_L2
-Isabel
-[SalaT]</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>TCGEV_L2
-Isabel
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>16h-18h</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>IAAJ_L2
-Ana
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>GUS_L1
-Manuel
-[SalaC]</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
     </row>
